--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail5 Features.xlsx
@@ -2950,7 +2950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,29 +2961,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3004,115 +3002,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3129,72 +3117,66 @@
         <v>1.371236522222318e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.273290811832194</v>
+        <v>1.009480818708081e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.88618433970957</v>
+        <v>4.069307562844146e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.009480818708081e-06</v>
+        <v>0.1192215636007184</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.069307562844146e-06</v>
+        <v>0.4086436112576713</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1192215636007184</v>
+        <v>0.1807682684011662</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4086436112576713</v>
+        <v>1.602396454078328</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1807682684011662</v>
+        <v>1.531378512755639</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.514245734805177</v>
+        <v>3.769029668930826</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.531378512755639</v>
+        <v>9.094827904941036e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.769029668930826</v>
+        <v>27046036.78185206</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.094827904941036e-15</v>
+        <v>4.034256207541785e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>27046036.78185206</v>
+        <v>6.652758434991487</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.034256207541785e-06</v>
+        <v>0.000151471253971499</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.652758434991487</v>
+        <v>9.323311962224661</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000151471253971499</v>
+        <v>1.23803539002347</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.323311962224661</v>
+        <v>0.0131665093866849</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.23803539002347</v>
+        <v>2.838458708024916</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0131665093866849</v>
+        <v>0.9484105263612758</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.838458708024916</v>
+        <v>1.841617802413692</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9484105263612758</v>
+        <v>10</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.841617802413692</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1672499391488213</v>
       </c>
     </row>
@@ -3209,72 +3191,66 @@
         <v>9.954080834097151e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.262206429625265</v>
+        <v>6.999895557424481e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>8.096772501839521</v>
+        <v>4.082906214732241e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.999895557424481e-07</v>
+        <v>0.1122488132942202</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.082906214732241e-06</v>
+        <v>0.4104923457217064</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1122488132942202</v>
+        <v>0.1806517637789977</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4104923457217064</v>
+        <v>1.587936860430216</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1806517637789977</v>
+        <v>1.501465682098333</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.499033045451357</v>
+        <v>3.732743212611043</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.501465682098333</v>
+        <v>9.27251125182628e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.732743212611043</v>
+        <v>25630087.20973991</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.27251125182628e-15</v>
+        <v>4.201163532185952e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>25630087.20973991</v>
+        <v>6.091125348178206</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.201163532185952e-06</v>
+        <v>0.0001502587017173348</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.091125348178206</v>
+        <v>9.370860632109469</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001502587017173348</v>
+        <v>1.20020051427081</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.370860632109469</v>
+        <v>0.01319467172936602</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.20020051427081</v>
+        <v>2.744091559097324</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01319467172936602</v>
+        <v>0.9475719329624246</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.744091559097324</v>
+        <v>1.838746603562303</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9475719329624246</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.838746603562303</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.170622069021635</v>
       </c>
     </row>
@@ -3289,72 +3265,66 @@
         <v>7.848965455232881e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.123882705231743</v>
+        <v>4.7624633604e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.908509114025636</v>
+        <v>4.092153192893334e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.7624633604e-07</v>
+        <v>0.096656680255697</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.092153192893334e-06</v>
+        <v>0.3809369107208877</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.096656680255697</v>
+        <v>0.1540833379661396</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3809369107208877</v>
+        <v>1.583937727845568</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1540833379661396</v>
+        <v>1.484848425332401</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.494612965925002</v>
+        <v>3.677314000698135</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.484848425332401</v>
+        <v>9.554152463180396e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.677314000698135</v>
+        <v>24893126.01823559</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.554152463180396e-15</v>
+        <v>4.318200349765536e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24893126.01823559</v>
+        <v>5.920399901669356</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.318200349765536e-06</v>
+        <v>0.0001551552614881088</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.920399901669356</v>
+        <v>8.850529228691187</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001551552614881088</v>
+        <v>1.245979297535307</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.850529228691187</v>
+        <v>0.01215360140466139</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.245979297535307</v>
+        <v>2.775563502622226</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01215360140466139</v>
+        <v>0.9479079913623021</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.775563502622226</v>
+        <v>1.864254581365877</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9479079913623021</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.864254581365877</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.159466368754393</v>
       </c>
     </row>
@@ -3369,72 +3339,66 @@
         <v>6.922472682491804e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5359331758559912</v>
+        <v>3.205568472894674e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7607359941657155</v>
+        <v>4.098471225996448e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.205568472894674e-07</v>
+        <v>0.07559904388986878</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.098471225996448e-06</v>
+        <v>0.3285502248675455</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07559904388986878</v>
+        <v>0.1134430841022053</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3285502248675455</v>
+        <v>1.577379342149778</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1134430841022053</v>
+        <v>1.598208420580268</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.488371534388494</v>
+        <v>3.664543285127555</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.598208420580268</v>
+        <v>9.620859803645915e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.664543285127555</v>
+        <v>25353286.19316301</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.620859803645915e-15</v>
+        <v>4.215762981558421e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>25353286.19316301</v>
+        <v>6.18418401445279</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.215762981558421e-06</v>
+        <v>0.0001688616340794061</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.18418401445279</v>
+        <v>8.670991832743367</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001688616340794061</v>
+        <v>1.371877498537282</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.670991832743367</v>
+        <v>0.01269604759857757</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.371877498537282</v>
+        <v>2.773857537092189</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01269604759857757</v>
+        <v>0.9475172659723586</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.773857537092189</v>
+        <v>1.856304323806722</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9475172659723586</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.856304323806722</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1475443935689852</v>
       </c>
     </row>
@@ -3449,72 +3413,66 @@
         <v>6.646378648012973e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.4528259803832281</v>
+        <v>2.161728051064924e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.062565553556598</v>
+        <v>4.102834931135296e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.161728051064924e-07</v>
+        <v>0.0539800674718762</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.102834931135296e-06</v>
+        <v>0.2807321455746004</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0539800674718762</v>
+        <v>0.08161529834227728</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2807321455746004</v>
+        <v>1.574588354480851</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08161529834227728</v>
+        <v>1.579122904414855</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.486643226489485</v>
+        <v>3.640923395911568</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.579122904414855</v>
+        <v>9.746092180565232e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.640923395911568</v>
+        <v>25465814.29324589</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.746092180565232e-15</v>
+        <v>4.198512468199492e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>25465814.29324589</v>
+        <v>6.320415800791996</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.198512468199492e-06</v>
+        <v>0.0001695319846215335</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.320415800791996</v>
+        <v>9.818308930537262</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001695319846215335</v>
+        <v>1.252133794003235</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.818308930537262</v>
+        <v>0.01634274603991824</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.252133794003235</v>
+        <v>2.686084930403774</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01634274603991824</v>
+        <v>0.9469519338113135</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.686084930403774</v>
+        <v>1.855976689680678</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9469519338113135</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.855976689680678</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1548191724922506</v>
       </c>
     </row>
@@ -3529,72 +3487,66 @@
         <v>6.64087368764469e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.50209877572934</v>
+        <v>2.141438920076163e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9904321122888895</v>
+        <v>4.105760806729737e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.141438920076163e-07</v>
+        <v>0.03502916578498453</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.105760806729737e-06</v>
+        <v>0.2435772862937118</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03502916578498453</v>
+        <v>0.06049367880400445</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2435772862937118</v>
+        <v>1.562515028551871</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06049367880400445</v>
+        <v>1.617448270359683</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.471499898120395</v>
+        <v>3.683018335824019</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.617448270359683</v>
+        <v>9.524580043444339e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.683018335824019</v>
+        <v>26689282.34706919</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.524580043444339e-15</v>
+        <v>4.01537167229355e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>26689282.34706919</v>
+        <v>6.78452782819349</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.01537167229355e-06</v>
+        <v>0.0001613519680291888</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.78452782819349</v>
+        <v>10.12440149290613</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001613519680291888</v>
+        <v>1.242314469310442</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.12440149290613</v>
+        <v>0.01653914235676645</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.242314469310442</v>
+        <v>2.655160049540969</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01653914235676645</v>
+        <v>0.946587760357423</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.655160049540969</v>
+        <v>1.859461309978059</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.946587760357423</v>
+        <v>13</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.859461309978059</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1682708350326117</v>
       </c>
     </row>
@@ -3971,7 +3923,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.62134771956626</v>
+        <v>1.624184492556715</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.919681753674654</v>
@@ -4060,7 +4012,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.610501850034836</v>
+        <v>1.62162145250441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.778872589773879</v>
@@ -4149,7 +4101,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.658199537459727</v>
+        <v>1.66279668219048</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.736288897744597</v>
@@ -4238,7 +4190,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.668424576310619</v>
+        <v>1.677510328275994</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.765825488871811</v>
@@ -4327,7 +4279,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6640928183237</v>
+        <v>1.677026812253292</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.887335141663781</v>
@@ -4416,7 +4368,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.638705230648365</v>
+        <v>1.653746083829245</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.919108225695226</v>
@@ -4505,7 +4457,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.662274798335652</v>
+        <v>1.677142906046037</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.776602696862864</v>
@@ -4594,7 +4546,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661885078191037</v>
+        <v>1.678543990575179</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.929163085854138</v>
@@ -4683,7 +4635,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.665459957955565</v>
+        <v>1.685287903948803</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.92652430423356</v>
@@ -4772,7 +4724,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692114361323348</v>
+        <v>1.712336787403649</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.615984605336546</v>
@@ -4861,7 +4813,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725800901751089</v>
+        <v>1.743396345764501</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.933292893995256</v>
@@ -4950,7 +4902,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.725332854702983</v>
+        <v>1.739034329348267</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.501425357668223</v>
@@ -5039,7 +4991,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.740000233400951</v>
+        <v>1.758527869628396</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.88923683407949</v>
@@ -5128,7 +5080,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.767881020433509</v>
+        <v>1.78636298791395</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.634702874592889</v>
@@ -5217,7 +5169,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.778172548033069</v>
+        <v>1.796836296581878</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.904012095330057</v>
@@ -5306,7 +5258,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.819627318258312</v>
+        <v>1.835730394029765</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.753047589429769</v>
@@ -5395,7 +5347,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.82043280251446</v>
+        <v>1.833264452339765</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.027983234566382</v>
@@ -5484,7 +5436,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.809200557623259</v>
+        <v>1.831088893674143</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.949096822295355</v>
@@ -5573,7 +5525,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.809984527949989</v>
+        <v>1.833275215308914</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.8066235844039</v>
@@ -5662,7 +5614,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.795072825362556</v>
+        <v>1.812003746175574</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.582676409727489</v>
@@ -5751,7 +5703,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.81741010598086</v>
+        <v>1.839700986161585</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.185694301355881</v>
@@ -5840,7 +5792,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815743055272776</v>
+        <v>1.835687223595498</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.947490498312302</v>
@@ -5929,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.78342298682931</v>
+        <v>1.807947688125772</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.872739890246627</v>
@@ -6018,7 +5970,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.773876303999983</v>
+        <v>1.800817789599574</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.803401049057106</v>
@@ -6107,7 +6059,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.770881862530775</v>
+        <v>1.799957070183998</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.191835057547127</v>
@@ -6196,7 +6148,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.771886418340378</v>
+        <v>1.801804175660234</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.927871161822356</v>
@@ -6285,7 +6237,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.783570193061577</v>
+        <v>1.806788192257907</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.696431543075287</v>
@@ -6374,7 +6326,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.774970437957992</v>
+        <v>1.80400949611071</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.810024706452382</v>
@@ -6463,7 +6415,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.771470084440378</v>
+        <v>1.804076496481548</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.793588432599278</v>
@@ -6552,7 +6504,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773359974609078</v>
+        <v>1.803637397088022</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.814305728763743</v>
@@ -6641,7 +6593,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770892795855971</v>
+        <v>1.802514066909648</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.012104875029232</v>
@@ -6730,7 +6682,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.761863539735521</v>
+        <v>1.793750860288712</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.026717404535082</v>
@@ -6819,7 +6771,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.761826563331592</v>
+        <v>1.792593507749264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.061196338968423</v>
@@ -6908,7 +6860,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.758216708145746</v>
+        <v>1.787631020208994</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.181005124840869</v>
@@ -6997,7 +6949,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.790968941877528</v>
+        <v>1.816751647303137</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.818696779520287</v>
@@ -7086,7 +7038,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.795350641194502</v>
+        <v>1.821072747020233</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.3622495379211</v>
@@ -7175,7 +7127,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.807628111800465</v>
+        <v>1.831822219661912</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.859098010420797</v>
@@ -7264,7 +7216,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.841781063023027</v>
+        <v>1.863327107943328</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.967182851256215</v>
@@ -7353,7 +7305,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.851384876778894</v>
+        <v>1.868640176432303</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.226864410258546</v>
@@ -7442,7 +7394,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.861683797697748</v>
+        <v>1.870604877315241</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.155265877326135</v>
@@ -7531,7 +7483,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.867818982541176</v>
+        <v>1.874240466947942</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.312335249971736</v>
@@ -7620,7 +7572,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.837337495062702</v>
+        <v>1.849726980274877</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.984395370285203</v>
@@ -7709,7 +7661,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.810366491193969</v>
+        <v>1.820270907287973</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.058206482862068</v>
@@ -7798,7 +7750,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.81155551489671</v>
+        <v>1.817833078528066</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.134836027215468</v>
@@ -7887,7 +7839,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.813081938224518</v>
+        <v>1.818964603339404</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.198758012035054</v>
@@ -7976,7 +7928,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.791795265994123</v>
+        <v>1.800914358445876</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.116622975049041</v>
@@ -8065,7 +8017,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818543648472276</v>
+        <v>1.824023932306889</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.4676250847435</v>
@@ -8154,7 +8106,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.821115813196773</v>
+        <v>1.829057311749137</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.134443773240449</v>
@@ -8243,7 +8195,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.825933550361763</v>
+        <v>1.828958417847905</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.102225370680978</v>
@@ -8332,7 +8284,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817593308704205</v>
+        <v>1.818545146107413</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.164109713826718</v>
@@ -8421,7 +8373,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.802784963183459</v>
+        <v>1.803270689064184</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.126907493882467</v>
@@ -8707,7 +8659,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.882023370019396</v>
+        <v>1.899510368375432</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.451263409945528</v>
@@ -8796,7 +8748,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.886907532993373</v>
+        <v>1.905314781527368</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.347801323727083</v>
@@ -8885,7 +8837,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.911649379251813</v>
+        <v>1.928871346964397</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.438920042603674</v>
@@ -8974,7 +8926,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.917531256992752</v>
+        <v>1.941630447089836</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.360846642094903</v>
@@ -9063,7 +9015,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.933933935127999</v>
+        <v>1.960928642447411</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.576075352488305</v>
@@ -9152,7 +9104,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.93940979504622</v>
+        <v>1.969883257864796</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.55657200323326</v>
@@ -9241,7 +9193,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.940193142503744</v>
+        <v>1.973528284221121</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.697556068811532</v>
@@ -9330,7 +9282,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.932077901093115</v>
+        <v>1.969172751600428</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.873778308265116</v>
@@ -9419,7 +9371,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.933871332746761</v>
+        <v>1.973188483426684</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.901811825414864</v>
@@ -9508,7 +9460,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.937821463635777</v>
+        <v>1.9760865625468</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.944437798562446</v>
@@ -9597,7 +9549,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.924062053583003</v>
+        <v>1.960758196728947</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.699170481696618</v>
@@ -9686,7 +9638,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.915393607008788</v>
+        <v>1.957456425330491</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.319621996494144</v>
@@ -9775,7 +9727,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.89595481986524</v>
+        <v>1.934018556180658</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.211712318820334</v>
@@ -9864,7 +9816,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.89322703655017</v>
+        <v>1.929516263981698</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.362561824023177</v>
@@ -9953,7 +9905,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.91152818526147</v>
+        <v>1.949897095297208</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.407957739566206</v>
@@ -10042,7 +9994,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.918189870776853</v>
+        <v>1.959434113706818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.94997598418341</v>
@@ -10131,7 +10083,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.924644606986297</v>
+        <v>1.971043918149057</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.094740012981329</v>
@@ -10220,7 +10172,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.928082340667041</v>
+        <v>1.97748655186737</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.049698185956923</v>
@@ -10309,7 +10261,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.93032622384461</v>
+        <v>1.976281988596032</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.670159743613726</v>
@@ -10398,7 +10350,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.923723904939688</v>
+        <v>1.969821518898621</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.952079569889217</v>
@@ -10487,7 +10439,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.929178455814232</v>
+        <v>1.978078916048449</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.692246192672891</v>
@@ -10576,7 +10528,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.932885390579021</v>
+        <v>1.981400668719254</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.73657068865851</v>
@@ -10665,7 +10617,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.934619718293302</v>
+        <v>1.984385704212776</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.967014929753496</v>
@@ -10754,7 +10706,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.939165836876197</v>
+        <v>1.98617820411751</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.150663012499771</v>
@@ -10843,7 +10795,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.945647138492009</v>
+        <v>1.999682495558455</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.742478167584404</v>
@@ -10932,7 +10884,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.955039247775154</v>
+        <v>2.013334839510577</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.51264758333411</v>
@@ -11021,7 +10973,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.955682166208541</v>
+        <v>2.014511392573493</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.437955366761755</v>
@@ -11110,7 +11062,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.964571716476386</v>
+        <v>2.024899582796211</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.182290868011307</v>
@@ -11199,7 +11151,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.966537353775403</v>
+        <v>2.035265063814241</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.836315674169319</v>
@@ -11288,7 +11240,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.966045061087563</v>
+        <v>2.039844718204242</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.693213559003198</v>
@@ -11377,7 +11329,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.964329236904217</v>
+        <v>2.04469601534063</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.474417774672162</v>
@@ -11466,7 +11418,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.963169015186872</v>
+        <v>2.044356285697309</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.778901499007149</v>
@@ -11555,7 +11507,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.962534397763113</v>
+        <v>2.044702269157179</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.097116343499095</v>
@@ -11644,7 +11596,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.967223132606682</v>
+        <v>2.051946517086771</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.379280738432934</v>
@@ -11733,7 +11685,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.969592076638845</v>
+        <v>2.067370908310958</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.283931679353763</v>
@@ -11822,7 +11774,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.969644957480367</v>
+        <v>2.070130735209312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.310524917841695</v>
@@ -11911,7 +11863,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.975135427294072</v>
+        <v>2.079039348179014</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.28334044164894</v>
@@ -12000,7 +11952,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.978803884996025</v>
+        <v>2.080750156936118</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.791957362157615</v>
@@ -12089,7 +12041,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.979276851669142</v>
+        <v>2.082273155131767</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.372047608768625</v>
@@ -12178,7 +12130,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.9806236177015</v>
+        <v>2.082016777873636</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.742553254022403</v>
@@ -12267,7 +12219,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.982727472780238</v>
+        <v>2.076929844996673</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.334796329758559</v>
@@ -12356,7 +12308,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.982379968644322</v>
+        <v>2.069244833903179</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.889807250489402</v>
@@ -12445,7 +12397,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.984982699787738</v>
+        <v>2.069615183827145</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.18812056594063</v>
@@ -12534,7 +12486,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.985680884881053</v>
+        <v>2.062096781890719</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.014401269782272</v>
@@ -12623,7 +12575,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.979886245181108</v>
+        <v>2.052400362103056</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.662801583145881</v>
@@ -12712,7 +12664,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.971133312103504</v>
+        <v>2.038916903574858</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.947579769253063</v>
@@ -12801,7 +12753,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.966375828455373</v>
+        <v>2.030344011077179</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.139961737091404</v>
@@ -12890,7 +12842,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.962005887564524</v>
+        <v>2.020383828343748</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.674649747873802</v>
@@ -12979,7 +12931,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.958272473060646</v>
+        <v>2.010802805772198</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.13697015107611</v>
@@ -13068,7 +13020,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.950595543842806</v>
+        <v>1.988903209402621</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.916607106001008</v>
@@ -13157,7 +13109,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.948084585059625</v>
+        <v>1.977244056140901</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.784427531994014</v>
@@ -13443,7 +13395,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.868606601874686</v>
+        <v>1.864909440301874</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.149816798445563</v>
@@ -13532,7 +13484,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.873197710485953</v>
+        <v>1.865562885447654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.82962269159222</v>
@@ -13621,7 +13573,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.884653455562694</v>
+        <v>1.872545642036361</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.789523918562971</v>
@@ -13710,7 +13662,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.884346310129553</v>
+        <v>1.870262951940683</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.343022136178897</v>
@@ -13799,7 +13751,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.875169010451454</v>
+        <v>1.860693513845095</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.207040890387769</v>
@@ -13888,7 +13840,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.868477311351402</v>
+        <v>1.858163331527863</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.056451951080952</v>
@@ -13977,7 +13929,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.875805328405349</v>
+        <v>1.86706710279004</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.924342324762832</v>
@@ -14066,7 +14018,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.878444932109599</v>
+        <v>1.870424816258368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.023933804022352</v>
@@ -14155,7 +14107,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.883817971773071</v>
+        <v>1.878306888332977</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.933755757519957</v>
@@ -14244,7 +14196,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.886479638466269</v>
+        <v>1.878002991426114</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.122876116887991</v>
@@ -14333,7 +14285,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.880009176447627</v>
+        <v>1.870074453076318</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.239013320792477</v>
@@ -14422,7 +14374,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.87088449357808</v>
+        <v>1.863116040448169</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.31940789681944</v>
@@ -14511,7 +14463,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.862901142116852</v>
+        <v>1.856933375788743</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.491413061958227</v>
@@ -14600,7 +14552,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.861709179165296</v>
+        <v>1.860222413245499</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.1087869141505</v>
@@ -14689,7 +14641,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.868930849332786</v>
+        <v>1.872763525915639</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.565061313208306</v>
@@ -14778,7 +14730,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.888473510335139</v>
+        <v>1.892527594675469</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.526614465353217</v>
@@ -14867,7 +14819,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.892218047733945</v>
+        <v>1.908709202835865</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.227076438957622</v>
@@ -14956,7 +14908,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.894366222124099</v>
+        <v>1.913388267552322</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.497640353938201</v>
@@ -15045,7 +14997,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.892067868773834</v>
+        <v>1.910714092876055</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.01417918792315</v>
@@ -15134,7 +15086,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.89366189116647</v>
+        <v>1.912764935775687</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.899386372811786</v>
@@ -15223,7 +15175,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.904469219405489</v>
+        <v>1.924039923811892</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.39347170416363</v>
@@ -15312,7 +15264,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.905121103596216</v>
+        <v>1.926027447495013</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.186793626005878</v>
@@ -15401,7 +15353,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.898348871653111</v>
+        <v>1.916200790957916</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.658882409952675</v>
@@ -15490,7 +15442,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.897936919844462</v>
+        <v>1.913822686646313</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.41147024786817</v>
@@ -15579,7 +15531,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.898623378974753</v>
+        <v>1.923224241010562</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.859301672755981</v>
@@ -15668,7 +15620,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.902268645882702</v>
+        <v>1.931120325231656</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.789530870641572</v>
@@ -15757,7 +15709,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.914697783163632</v>
+        <v>1.945852529105857</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.617220962709499</v>
@@ -15846,7 +15798,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.916844146754576</v>
+        <v>1.95002390790609</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.42413005961433</v>
@@ -15935,7 +15887,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.921362798373583</v>
+        <v>1.95655133250366</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.343251695881101</v>
@@ -16024,7 +15976,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.921832531551606</v>
+        <v>1.958932380254027</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.575131886343601</v>
@@ -16113,7 +16065,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.916029417120648</v>
+        <v>1.952754307331038</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.319761298893735</v>
@@ -16202,7 +16154,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.914608919183785</v>
+        <v>1.948430546205985</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.946065001880584</v>
@@ -16291,7 +16243,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.915293150576862</v>
+        <v>1.950178477500912</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.272684188419762</v>
@@ -16380,7 +16332,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.918277862628825</v>
+        <v>1.957110495470271</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.139877398785012</v>
@@ -16469,7 +16421,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.923729699049365</v>
+        <v>1.967869262933943</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.274186493576544</v>
@@ -16558,7 +16510,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.927032553513332</v>
+        <v>1.973961036085832</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.947008850844202</v>
@@ -16647,7 +16599,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.927724282516598</v>
+        <v>1.978855249145695</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.398822424263975</v>
@@ -16736,7 +16688,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.93455138455436</v>
+        <v>1.985265741328542</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.350516570386915</v>
@@ -16825,7 +16777,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.937451195400467</v>
+        <v>1.988875964773478</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.866845007321363</v>
@@ -16914,7 +16866,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.936899631880166</v>
+        <v>1.987488988654156</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.620605548498514</v>
@@ -17003,7 +16955,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.937416765994842</v>
+        <v>1.981316120264375</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.72717215596972</v>
@@ -17092,7 +17044,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.938802410099799</v>
+        <v>1.975417185501826</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.362064701512574</v>
@@ -17181,7 +17133,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.935214899492909</v>
+        <v>1.974493805980768</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.767381005113256</v>
@@ -17270,7 +17222,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.935958084892035</v>
+        <v>1.968886235048963</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.821462839798442</v>
@@ -17359,7 +17311,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.934491146507536</v>
+        <v>1.966949983999803</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.857091924649394</v>
@@ -17448,7 +17400,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.924494960484374</v>
+        <v>1.954871712865976</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.687573914185216</v>
@@ -17537,7 +17489,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.92597481127629</v>
+        <v>1.94830519352073</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.315805518602067</v>
@@ -17626,7 +17578,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.917607768234248</v>
+        <v>1.934902971880959</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.074477994755367</v>
@@ -17715,7 +17667,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.914860987297155</v>
+        <v>1.927593704796122</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.675045126365216</v>
@@ -17804,7 +17756,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.906904490779633</v>
+        <v>1.91415739362606</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.84440468773505</v>
@@ -17893,7 +17845,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.899946585287999</v>
+        <v>1.904698097332466</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.574354779471669</v>
@@ -18179,7 +18131,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.914676002057705</v>
+        <v>1.899889702251704</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.118953100033711</v>
@@ -18268,7 +18220,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.913910835441914</v>
+        <v>1.898149963291497</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.026692199346422</v>
@@ -18357,7 +18309,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.915587916100729</v>
+        <v>1.893417292646629</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.024668625580694</v>
@@ -18446,7 +18398,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.884849035167912</v>
+        <v>1.845114345802332</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.556626192858195</v>
@@ -18535,7 +18487,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.840726119875312</v>
+        <v>1.791172505365822</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.831096294982692</v>
@@ -18624,7 +18576,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.830112552253808</v>
+        <v>1.789481557831971</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.862162390199715</v>
@@ -18713,7 +18665,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.834787889833366</v>
+        <v>1.79539657241241</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.814673354958878</v>
@@ -18802,7 +18754,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.830823896258557</v>
+        <v>1.791491230248973</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.454188570909047</v>
@@ -18891,7 +18843,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.829725892748126</v>
+        <v>1.784637523751281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.43668138945492</v>
@@ -18980,7 +18932,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.822110674769969</v>
+        <v>1.778806698479564</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.485020639562366</v>
@@ -19069,7 +19021,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.821445994758136</v>
+        <v>1.776602055619695</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.909158857330643</v>
@@ -19158,7 +19110,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.819098279978697</v>
+        <v>1.768933637026771</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.78868728262532</v>
@@ -19247,7 +19199,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.820352652099278</v>
+        <v>1.769743206239294</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.435983082303775</v>
@@ -19336,7 +19288,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.826431771188646</v>
+        <v>1.772981410328907</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.185245337675846</v>
@@ -19425,7 +19377,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.82825549680209</v>
+        <v>1.778334138379889</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.673194445915264</v>
@@ -19514,7 +19466,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833858378373812</v>
+        <v>1.779231479491354</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.465166653905135</v>
@@ -19603,7 +19555,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.829027686665728</v>
+        <v>1.775961699998709</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.599015657101081</v>
@@ -19692,7 +19644,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.822862085487517</v>
+        <v>1.776469482486822</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.578576609308413</v>
@@ -19781,7 +19733,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.821290605086886</v>
+        <v>1.780133232872156</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.322241748317834</v>
@@ -19870,7 +19822,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.813059529206873</v>
+        <v>1.772991851178956</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.512676307665483</v>
@@ -19959,7 +19911,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.830117245076923</v>
+        <v>1.781137751368222</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.066224571667025</v>
@@ -20048,7 +20000,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.830845207695059</v>
+        <v>1.778972542073948</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.00987187743962</v>
@@ -20137,7 +20089,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.829956917453166</v>
+        <v>1.780291613591833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.212923389028198</v>
@@ -20226,7 +20178,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.829006852152315</v>
+        <v>1.776234416851146</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.074925589681372</v>
@@ -20315,7 +20267,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.828210741126794</v>
+        <v>1.775789701915066</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.484912197085118</v>
@@ -20404,7 +20356,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.824169705569221</v>
+        <v>1.776464033399966</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.314509086961609</v>
@@ -20493,7 +20445,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82734405325058</v>
+        <v>1.786135228345373</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.90186803754333</v>
@@ -20582,7 +20534,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.820707093859942</v>
+        <v>1.777512542064564</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.447964982353986</v>
@@ -20671,7 +20623,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.832415544823033</v>
+        <v>1.7872837907532</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.576180323715411</v>
@@ -20760,7 +20712,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.835209811679769</v>
+        <v>1.790276588857961</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.870162697012861</v>
@@ -20849,7 +20801,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.832984133943266</v>
+        <v>1.796807801023295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.540137169708937</v>
@@ -20938,7 +20890,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.831050642851172</v>
+        <v>1.788743418198848</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.350688172729014</v>
@@ -21027,7 +20979,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.82849748392681</v>
+        <v>1.784605026270386</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.295802622795455</v>
@@ -21116,7 +21068,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.824489130902297</v>
+        <v>1.778382123890747</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.821322339578513</v>
@@ -21205,7 +21157,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.827881346529329</v>
+        <v>1.780000606487665</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.304332599283332</v>
@@ -21294,7 +21246,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.827416692736457</v>
+        <v>1.779127981893295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.763905419947746</v>
@@ -21383,7 +21335,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.829770527583899</v>
+        <v>1.779206342003544</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.243703501661465</v>
@@ -21472,7 +21424,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.831581689349743</v>
+        <v>1.777638319520726</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.062600547262958</v>
@@ -21561,7 +21513,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.83274308421131</v>
+        <v>1.779096498824867</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.347465251662037</v>
@@ -21650,7 +21602,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.839185453959815</v>
+        <v>1.785939359738954</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.323114643654179</v>
@@ -21739,7 +21691,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.849083255043613</v>
+        <v>1.793839245964316</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.247503132705554</v>
@@ -21828,7 +21780,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.849416193802679</v>
+        <v>1.795774479434088</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.97523320839138</v>
@@ -21917,7 +21869,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.851534993835825</v>
+        <v>1.802637990090044</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.952068552857005</v>
@@ -22006,7 +21958,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.860209320427788</v>
+        <v>1.810973445905882</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.033418048847667</v>
@@ -22095,7 +22047,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.861629880626915</v>
+        <v>1.814490276451136</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.258385264789189</v>
@@ -22184,7 +22136,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.850282214015842</v>
+        <v>1.803559994285062</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.858476146163738</v>
@@ -22273,7 +22225,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.862949895493866</v>
+        <v>1.813851229892241</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.857358106530342</v>
@@ -22362,7 +22314,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.853362703487068</v>
+        <v>1.802973544753274</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.79654687850824</v>
@@ -22451,7 +22403,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.858078719690053</v>
+        <v>1.812674508504526</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.374130551683934</v>
@@ -22540,7 +22492,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.858946884728466</v>
+        <v>1.817846511877092</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.243406603702452</v>
@@ -22629,7 +22581,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.857680557653367</v>
+        <v>1.816066021482758</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.780759978203122</v>
@@ -22915,7 +22867,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.859923987248835</v>
+        <v>1.858722640981231</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.91227477381091</v>
@@ -23004,7 +22956,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.870147658341156</v>
+        <v>1.867389998809085</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.988108112480404</v>
@@ -23093,7 +23045,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.871729769485192</v>
+        <v>1.865205292042139</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.689274138932974</v>
@@ -23182,7 +23134,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.818748044123788</v>
+        <v>1.805476429780214</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.261720042692092</v>
@@ -23271,7 +23223,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.730944129798877</v>
+        <v>1.715673817839471</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.95575601421841</v>
@@ -23360,7 +23312,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.726223867536681</v>
+        <v>1.706255202001113</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.377035523429481</v>
@@ -23449,7 +23401,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.7133090646495</v>
+        <v>1.69436898153874</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.307300855848425</v>
@@ -23538,7 +23490,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.688032385936104</v>
+        <v>1.666559697680174</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.112506320064858</v>
@@ -23627,7 +23579,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693964712813572</v>
+        <v>1.667851090082865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.077647038862888</v>
@@ -23716,7 +23668,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.696388814338148</v>
+        <v>1.668047597774369</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.908946669932256</v>
@@ -23805,7 +23757,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686703806206835</v>
+        <v>1.661558250754978</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.172887433849954</v>
@@ -23894,7 +23846,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.690422615457118</v>
+        <v>1.663173873807262</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.941679395286967</v>
@@ -23983,7 +23935,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.679518273053912</v>
+        <v>1.650998021694698</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.909475818703949</v>
@@ -24072,7 +24024,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.702797175950892</v>
+        <v>1.669087548453455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.29080731739948</v>
@@ -24161,7 +24113,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701449292144221</v>
+        <v>1.674217688215037</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.367552470288701</v>
@@ -24250,7 +24202,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.702703966437129</v>
+        <v>1.671156522516434</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.287180954228961</v>
@@ -24339,7 +24291,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689638567765082</v>
+        <v>1.66089635075195</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.006519589852455</v>
@@ -24428,7 +24380,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.688417521088524</v>
+        <v>1.660638336290316</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.003091055853071</v>
@@ -24517,7 +24469,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.680113628821585</v>
+        <v>1.647429230580096</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.22579049908808</v>
@@ -24606,7 +24558,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667702830327196</v>
+        <v>1.634204524531071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.132790563806156</v>
@@ -24695,7 +24647,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664446135433471</v>
+        <v>1.629148893890128</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.163871340124024</v>
@@ -24784,7 +24736,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.673748092780085</v>
+        <v>1.635559708713944</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.501159902213783</v>
@@ -24873,7 +24825,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675049681380046</v>
+        <v>1.642201659710213</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.372298946317135</v>
@@ -24962,7 +24914,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.67552609583646</v>
+        <v>1.646052256215839</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.282636108642805</v>
@@ -25051,7 +25003,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.666360947350283</v>
+        <v>1.644694551978599</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.20712730433574</v>
@@ -25140,7 +25092,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.67665340876036</v>
+        <v>1.650299223906086</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.476121750025116</v>
@@ -25229,7 +25181,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.667641561710825</v>
+        <v>1.63895288575239</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.572412007667125</v>
@@ -25318,7 +25270,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.67507361146629</v>
+        <v>1.647166286689612</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.455634211529448</v>
@@ -25407,7 +25359,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.687352559396295</v>
+        <v>1.658961157739314</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.57709505807137</v>
@@ -25496,7 +25448,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.686714905034617</v>
+        <v>1.648066630284994</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.408176456902406</v>
@@ -25585,7 +25537,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.687042497481588</v>
+        <v>1.653116325849034</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.1138931077263</v>
@@ -25674,7 +25626,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.688524871787085</v>
+        <v>1.650381799824809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.160360948749414</v>
@@ -25763,7 +25715,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676747246296996</v>
+        <v>1.643616457015788</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.175059161473586</v>
@@ -25852,7 +25804,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681937129652121</v>
+        <v>1.651477690974176</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.955027603754188</v>
@@ -25941,7 +25893,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.68984357966657</v>
+        <v>1.659515876234878</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.452748598326133</v>
@@ -26030,7 +25982,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699507831296042</v>
+        <v>1.664864015174361</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.446381593730453</v>
@@ -26119,7 +26071,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.716550595159268</v>
+        <v>1.66978883333825</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.107389895566242</v>
@@ -26208,7 +26160,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.726842875270485</v>
+        <v>1.676378399599698</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.523363269845381</v>
@@ -26297,7 +26249,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.726972364823345</v>
+        <v>1.680264450628873</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.330326543872409</v>
@@ -26386,7 +26338,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738186852290294</v>
+        <v>1.684509135219172</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.888986450033897</v>
@@ -26475,7 +26427,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733557582065475</v>
+        <v>1.681260651285691</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.578730210804328</v>
@@ -26564,7 +26516,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.743952473798753</v>
+        <v>1.700252694105552</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.950020345636796</v>
@@ -26653,7 +26605,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.755929460193891</v>
+        <v>1.710497122418245</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.936952398360966</v>
@@ -26742,7 +26694,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.777045095417145</v>
+        <v>1.736964738244555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.45794484160308</v>
@@ -26831,7 +26783,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.779189297104072</v>
+        <v>1.746605156906927</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.42709029714746</v>
@@ -26920,7 +26872,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.766737150182952</v>
+        <v>1.735453349215243</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.528417913832902</v>
@@ -27009,7 +26961,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.766219597458804</v>
+        <v>1.735229602508794</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.347416120766453</v>
@@ -27098,7 +27050,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.773337998738324</v>
+        <v>1.737637095223305</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.990318890751087</v>
@@ -27187,7 +27139,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.778034654323562</v>
+        <v>1.738690392166708</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.331002635760657</v>
@@ -27276,7 +27228,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.776639629501199</v>
+        <v>1.740364965790772</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.287309980192346</v>
@@ -27365,7 +27317,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.776699078383322</v>
+        <v>1.744594127177426</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.573632923005746</v>
@@ -27651,7 +27603,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.70184807478937</v>
+        <v>1.70304403883177</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.226694866200661</v>
@@ -27740,7 +27692,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.696414495663844</v>
+        <v>1.697235038925894</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.189652389577368</v>
@@ -27829,7 +27781,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.744888815993138</v>
+        <v>1.738117819216557</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.96650151371652</v>
@@ -27918,7 +27870,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.732049104932568</v>
+        <v>1.724810538762216</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.84169313837237</v>
@@ -28007,7 +27959,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710725603194683</v>
+        <v>1.704295225336862</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.270867632874122</v>
@@ -28096,7 +28048,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.685247416690507</v>
+        <v>1.682588838689897</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.205321433651591</v>
@@ -28185,7 +28137,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.708163742148855</v>
+        <v>1.702467383385301</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.769607890203889</v>
@@ -28274,7 +28226,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.704943368071864</v>
+        <v>1.692854749188085</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.978657770850075</v>
@@ -28363,7 +28315,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.701949388299263</v>
+        <v>1.691849389276525</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.115470901789315</v>
@@ -28452,7 +28404,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.721710750499815</v>
+        <v>1.707079051525692</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.601388382902948</v>
@@ -28541,7 +28493,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.747183776206905</v>
+        <v>1.72868165708086</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.136456003097833</v>
@@ -28630,7 +28582,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.737407787290108</v>
+        <v>1.716867279304793</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.713569625015826</v>
@@ -28719,7 +28671,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.744311531054326</v>
+        <v>1.725554328604674</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.821322462416587</v>
@@ -28808,7 +28760,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.773777777940525</v>
+        <v>1.751087277186224</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.648955343418376</v>
@@ -28897,7 +28849,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.778601527382901</v>
+        <v>1.755395449298415</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.86168385144663</v>
@@ -28986,7 +28938,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.818174320706733</v>
+        <v>1.791463417086406</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.812301934323565</v>
@@ -29075,7 +29027,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.814865106775084</v>
+        <v>1.792023008224212</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.074329251026261</v>
@@ -29164,7 +29116,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.798300876448856</v>
+        <v>1.778162524747013</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.924571520404686</v>
@@ -29253,7 +29205,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.798768336335974</v>
+        <v>1.780691978807021</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.779010217707168</v>
@@ -29342,7 +29294,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.78004957781052</v>
+        <v>1.761371997413608</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.513958813647081</v>
@@ -29431,7 +29383,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.805292264478</v>
+        <v>1.787504518635388</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.770319048654935</v>
@@ -29520,7 +29472,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.800253948932949</v>
+        <v>1.781289810008535</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.67712802986272</v>
@@ -29609,7 +29561,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.776232332788251</v>
+        <v>1.768871702171452</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.819559797664587</v>
@@ -29698,7 +29650,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.766313965822735</v>
+        <v>1.757638418227258</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.873769789635166</v>
@@ -29787,7 +29739,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.765015824848001</v>
+        <v>1.760553455438924</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.131295401968462</v>
@@ -29876,7 +29828,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.76396055795735</v>
+        <v>1.757389060055984</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.858620921484998</v>
@@ -29965,7 +29917,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.775299271458921</v>
+        <v>1.767905300870178</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.656841283289661</v>
@@ -30054,7 +30006,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.76636771659287</v>
+        <v>1.759505868808925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.785664055326452</v>
@@ -30143,7 +30095,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.769367297665429</v>
+        <v>1.762184845001536</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.793163888580661</v>
@@ -30232,7 +30184,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.770158516504173</v>
+        <v>1.762024417213587</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.838395089795773</v>
@@ -30321,7 +30273,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.769642645615024</v>
+        <v>1.761294498828138</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.998630866379698</v>
@@ -30410,7 +30362,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.751503619442875</v>
+        <v>1.746344423951922</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.789024284554236</v>
@@ -30499,7 +30451,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.755015941500481</v>
+        <v>1.751399445547616</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.819538967048499</v>
@@ -30588,7 +30540,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.753989273956726</v>
+        <v>1.754333945151974</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.88735158808596</v>
@@ -30677,7 +30629,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.786757213145788</v>
+        <v>1.777103825102242</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.694418864791766</v>
@@ -30766,7 +30718,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.79679057314533</v>
+        <v>1.788562892317273</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.170663550750907</v>
@@ -30855,7 +30807,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.805895241306481</v>
+        <v>1.794004819649544</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.814152934249519</v>
@@ -30944,7 +30896,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.830869180448738</v>
+        <v>1.812999182951083</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.844169774052633</v>
@@ -31033,7 +30985,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.83311288274345</v>
+        <v>1.815368274284043</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.972694586964552</v>
@@ -31122,7 +31074,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.840699118995013</v>
+        <v>1.816665319180593</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.016061714126655</v>
@@ -31211,7 +31163,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.849613208297712</v>
+        <v>1.823900024082634</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.160169232294219</v>
@@ -31300,7 +31252,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.822205840760927</v>
+        <v>1.803751704699615</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.80817787456197</v>
@@ -31389,7 +31341,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.806050846875812</v>
+        <v>1.795600271661145</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.953757555360859</v>
@@ -31478,7 +31430,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.816156995291381</v>
+        <v>1.803797260004664</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.235843528764476</v>
@@ -31567,7 +31519,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.816411312434842</v>
+        <v>1.811273761544882</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.141554912130413</v>
@@ -31656,7 +31608,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.801361032510895</v>
+        <v>1.800465068160117</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.971492292409394</v>
@@ -31745,7 +31697,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.831226232179273</v>
+        <v>1.822302536091361</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.31759593566212</v>
@@ -31834,7 +31786,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.829239262328726</v>
+        <v>1.822086548550433</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.987170094261933</v>
@@ -31923,7 +31875,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.833205452666287</v>
+        <v>1.818128006413192</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.924758398017242</v>
@@ -32012,7 +31964,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.824602946083522</v>
+        <v>1.811625516754034</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.90280992671092</v>
@@ -32101,7 +32053,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.820451299444738</v>
+        <v>1.811268443346435</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.150465277221556</v>
